--- a/Hardware/Module.xlsx
+++ b/Hardware/Module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Dissertation\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9439A3-CC39-4067-993A-30CC5F032B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4241F8B-8493-4E5A-AAE1-B7830347B3C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="372" windowWidth="21120" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="912" yWindow="372" windowWidth="21120" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -526,7 +526,7 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -615,8 +615,10 @@
     <hyperlink ref="C8" r:id="rId4" xr:uid="{2B32824F-B354-4F34-99D0-EE61941ECFE9}"/>
     <hyperlink ref="C9" r:id="rId5" display="https://hshop.vn/products/mach-vi-dieu-khien-raspberry-pi-pico-w-rp2040-wifi-bluetooth" xr:uid="{D6445A8F-A81E-4CC7-B43A-EFB2030437F3}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{F66E07FE-A072-46E2-BB06-AFB2655A86C2}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{38A07A8F-BEA0-43F3-949A-DB6C93B52923}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{76AACD3D-EF66-4A6B-8D95-734BA27DD53C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>